--- a/biology/Botanique/Monsonia/Monsonia.xlsx
+++ b/biology/Botanique/Monsonia/Monsonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Monsonia est un genre de plantes de la famille des Geraniaceae. 
 Le genre a été nommé par Carl von Linné en l’honneur de Lady Anne Monson qui avait envoyé les spécimens au jardins botaniques royaux de Kew depuis l’Afrique du Sud.
@@ -512,13 +524,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (16 octobre 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (16 octobre 2018) :
 Monsonia heliotropioides (Cav.) Boiss.
 Monsonia marlothii (Engl.) F. Albers
 Monsonia nivea (Decne.) Decne. ex Webb
-Selon Catalogue of Life                                   (16 octobre 2018)[3] :
+Selon Catalogue of Life                                   (16 octobre 2018) :
 Monsonia angustifolia E. Mey.
 Monsonia attenuata Harv. &amp; Sond.
 Monsonia brevirostrata Knuth
@@ -558,7 +572,7 @@
 Monsonia trilobata L. E. Kers
 Monsonia umbellata Harv.
 Monsonia vanderietiae (L. Bolus) F. Albers
-Selon The Plant List            (16 octobre 2018)[4] :
+Selon The Plant List            (16 octobre 2018) :
 Monsonia angustifolia E. Mey. ex A. Rich.
 Monsonia attenuata Harv.
 Monsonia brevirostrata R. Knuth
@@ -583,7 +597,7 @@
 Monsonia transvaalensis R. Knuth
 Monsonia trilobata Kers
 Monsonia umbellata Harv.
-Selon Tropicos                                           (16 octobre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (16 octobre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Monsonia alexandraensis R. Knuth
 Monsonia angustifolia E. Mey. ex A. Rich.
 Monsonia asiatica Vicary
